--- a/NformTester/NformTester/Keywordscripts/TST581_UsersWithoutAllRightsCanNotEditOnActionSets.xlsx
+++ b/NformTester/NformTester/Keywordscripts/TST581_UsersWithoutAllRightsCanNotEditOnActionSets.xlsx
@@ -1209,7 +1209,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7659" uniqueCount="853">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7683" uniqueCount="855">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3681,80 +3681,147 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>;Add some devices.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FormManaged_Devices</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Add_Device</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SingleManual</t>
+  </si>
+  <si>
+    <t>$SNMP_GXT_1$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SNMP_GXT_0_NAME$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Description for GXT"</t>
+  </si>
+  <si>
+    <t>"Liebert GXT UPS/WebCard"</t>
+  </si>
+  <si>
+    <t>"SNMP"</t>
+  </si>
+  <si>
     <t>T</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>;Add some devices.</t>
+    <t>C</t>
+  </si>
+  <si>
+    <t>"action-one"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>F</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>FormManaged_Devices</t>
+    <t>"nform testing"</t>
+  </si>
+  <si>
+    <t>"test-writefile"</t>
+  </si>
+  <si>
+    <t>"C:\Nform\writefile_result.txt"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Add_Device</t>
+    <t>;Create an action set, included write file and read data.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SingleManual</t>
-  </si>
-  <si>
-    <t>$SNMP_GXT_1$</t>
+    <t>"Test"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$SNMP_GXT_0_NAME$</t>
+    <t>C</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"Description for GXT"</t>
-  </si>
-  <si>
-    <t>"Liebert GXT UPS/WebCard"</t>
-  </si>
-  <si>
-    <t>"SNMP"</t>
+    <t>Pause</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>T</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>"action-one"</t>
+    <t>"read data"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"nform testing"</t>
-  </si>
-  <si>
-    <t>"test-writefile"</t>
-  </si>
-  <si>
-    <t>"C:\Nform\writefile_result.txt"</t>
+    <t>"test"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>;Create an action set, included write file and read data.</t>
+    <t>"ABC GXT UPS (10.146.83.2)"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"Test"</t>
+    <t>F</t>
+  </si>
+  <si>
+    <t>"testuser"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"admin"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"localhost"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equal</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FormAction_Sets</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">;Prerequisites:1. User-defined group that has ‘Configure actions’ rights should not be assigned access rights for ’ Write Data’.2. Added action set should be defined as combination of ‘Read data’, ‘Write data’, and ‘Write file’.3. Basic licenses key should be installed. </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>C</t>
+    <t>Enabled</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Pause</t>
+    <t>; login with user and verify that user can edit this action set.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>; login with adminiatrator and add one write data action to action-one.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"write data"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InputCell</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3762,90 +3829,30 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"read data"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"test"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ABC GXT UPS (10.146.83.2)"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>"testuser"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"admin"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"localhost"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Equal</t>
+    <t>; login with user and verify that user can not edit this action set.</t>
     <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>FormAction_Sets</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">;Prerequisites:1. User-defined group that has ‘Configure actions’ rights should not be assigned access rights for ’ Write Data’.2. Added action set should be defined as combination of ‘Read data’, ‘Write data’, and ‘Write file’.3. Basic licenses key should be installed. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enabled</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>; login with user and verify that user can edit this action set.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>; login with adminiatrator and add one write data action to action-one.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"write data"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>InputCell</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>T</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>; login with user and verify that user can not edit this action set.</t>
+    <t>FormManaged_Devices</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>89-116</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>"{CONTROL down}{Akey}{CONTROL up}"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3908,6 +3915,13 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="7">
@@ -3989,7 +4003,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3999,8 +4013,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4054,13 +4072,71 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="2" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="常规 2 2" xfId="2"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="10">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -4785,10 +4861,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O117"/>
+  <dimension ref="A1:O123"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4920,7 +4996,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>811</v>
+        <v>851</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>18</v>
@@ -4951,7 +5027,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -4995,7 +5071,7 @@
         <v>774</v>
       </c>
       <c r="B7" s="4">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="C7" s="5">
         <v>6</v>
@@ -5019,9 +5095,7 @@
       <c r="A8" s="3" t="s">
         <v>797</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>852</v>
-      </c>
+      <c r="B8" s="9"/>
       <c r="C8" s="5">
         <v>7</v>
       </c>
@@ -5544,7 +5618,7 @@
         <v>25</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
@@ -5563,32 +5637,32 @@
         <v>26</v>
       </c>
       <c r="D27" s="8" t="s">
+        <v>812</v>
+      </c>
+      <c r="E27" s="5" t="s">
         <v>813</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="F27" s="5" t="s">
         <v>814</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>815</v>
       </c>
       <c r="G27" s="5"/>
       <c r="H27" s="5" t="s">
+        <v>815</v>
+      </c>
+      <c r="I27" s="11" t="s">
         <v>816</v>
       </c>
-      <c r="I27" s="11" t="s">
+      <c r="J27" s="5" t="s">
         <v>817</v>
       </c>
-      <c r="J27" s="5" t="s">
+      <c r="K27" s="5" t="s">
         <v>818</v>
       </c>
-      <c r="K27" s="5" t="s">
+      <c r="L27" s="5" t="s">
         <v>819</v>
       </c>
-      <c r="L27" s="5" t="s">
+      <c r="M27" s="5" t="s">
         <v>820</v>
-      </c>
-      <c r="M27" s="5" t="s">
-        <v>821</v>
       </c>
       <c r="N27" s="17"/>
       <c r="O27" s="2"/>
@@ -5598,7 +5672,7 @@
         <v>27</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
@@ -5617,7 +5691,7 @@
         <v>28</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>19</v>
@@ -5642,7 +5716,7 @@
         <v>29</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>19</v>
@@ -5667,7 +5741,7 @@
         <v>30</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="E31" s="11" t="s">
         <v>306</v>
@@ -5692,7 +5766,7 @@
         <v>31</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="E32" s="11" t="s">
         <v>310</v>
@@ -5704,7 +5778,7 @@
         <v>4</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
@@ -5719,7 +5793,7 @@
         <v>32</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="E33" s="11" t="s">
         <v>310</v>
@@ -5731,7 +5805,7 @@
         <v>4</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
@@ -5746,7 +5820,7 @@
         <v>33</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="E34" s="11" t="s">
         <v>310</v>
@@ -5821,7 +5895,7 @@
         <v>36</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="E37" s="11" t="s">
         <v>361</v>
@@ -5833,7 +5907,7 @@
         <v>4</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="I37" s="11"/>
       <c r="J37" s="5"/>
@@ -5848,7 +5922,7 @@
         <v>37</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="E38" s="11" t="s">
         <v>361</v>
@@ -5860,7 +5934,7 @@
         <v>4</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="I38" s="11"/>
       <c r="J38" s="5"/>
@@ -5887,7 +5961,7 @@
         <v>4</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="I39" s="11"/>
       <c r="J39" s="5"/>
@@ -5927,7 +6001,7 @@
         <v>40</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="E41" s="11" t="s">
         <v>361</v>
@@ -5939,7 +6013,7 @@
         <v>4</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="I41" s="5"/>
       <c r="J41" s="5"/>
@@ -6004,7 +6078,7 @@
         <v>43</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="E44" s="11" t="s">
         <v>361</v>
@@ -6029,10 +6103,10 @@
         <v>44</v>
       </c>
       <c r="D45" s="8" t="s">
+        <v>829</v>
+      </c>
+      <c r="E45" s="11" t="s">
         <v>830</v>
-      </c>
-      <c r="E45" s="11" t="s">
-        <v>831</v>
       </c>
       <c r="F45" s="5">
         <v>2</v>
@@ -6052,7 +6126,7 @@
         <v>45</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="E46" s="11" t="s">
         <v>310</v>
@@ -6139,7 +6213,7 @@
         <v>4</v>
       </c>
       <c r="H49" s="11" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="I49" s="11"/>
       <c r="J49" s="5"/>
@@ -6166,7 +6240,7 @@
         <v>4</v>
       </c>
       <c r="H50" s="11" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="I50" s="11"/>
       <c r="J50" s="5"/>
@@ -6193,7 +6267,7 @@
         <v>13</v>
       </c>
       <c r="H51" s="11" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="I51" s="11"/>
       <c r="J51" s="5"/>
@@ -6312,7 +6386,7 @@
         <v>55</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="E56" s="11" t="s">
         <v>756</v>
@@ -6335,7 +6409,7 @@
         <v>56</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="E57" s="5"/>
       <c r="F57" s="5"/>
@@ -6401,7 +6475,7 @@
         <v>59</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="E60" s="5" t="s">
         <v>0</v>
@@ -6411,13 +6485,13 @@
       </c>
       <c r="G60" s="5"/>
       <c r="H60" s="5" t="s">
+        <v>836</v>
+      </c>
+      <c r="I60" s="5" t="s">
         <v>837</v>
       </c>
-      <c r="I60" s="5" t="s">
+      <c r="J60" s="5" t="s">
         <v>838</v>
-      </c>
-      <c r="J60" s="5" t="s">
-        <v>839</v>
       </c>
       <c r="K60" s="5"/>
       <c r="L60" s="5"/>
@@ -6429,7 +6503,7 @@
         <v>60</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>800</v>
+        <v>847</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>18</v>
@@ -6513,7 +6587,7 @@
         <v>56</v>
       </c>
       <c r="H64" s="11" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="I64" s="5"/>
       <c r="J64" s="5"/>
@@ -6539,10 +6613,10 @@
         <v>7</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="I65" s="5" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="J65" s="5" t="b">
         <v>1</v>
@@ -6560,7 +6634,7 @@
         <v>795</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="F66" s="5" t="s">
         <v>174</v>
@@ -6569,10 +6643,10 @@
         <v>7</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="I66" s="5" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="J66" s="5" t="b">
         <v>1</v>
@@ -6587,10 +6661,10 @@
         <v>66</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="F67" s="5" t="s">
         <v>184</v>
@@ -6599,10 +6673,10 @@
         <v>7</v>
       </c>
       <c r="H67" s="5" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="I67" s="5" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="J67" s="5" t="b">
         <v>1</v>
@@ -6620,7 +6694,7 @@
         <v>795</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="F68" s="5" t="s">
         <v>99</v>
@@ -6642,7 +6716,7 @@
         <v>68</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="E69" s="11"/>
       <c r="F69" s="5"/>
@@ -6737,7 +6811,7 @@
         <v>72</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="E73" s="5" t="s">
         <v>18</v>
@@ -6823,7 +6897,7 @@
         <v>56</v>
       </c>
       <c r="H76" s="11" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="I76" s="5"/>
       <c r="J76" s="5"/>
@@ -6950,7 +7024,7 @@
         <v>4</v>
       </c>
       <c r="H81" s="11" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="I81" s="11"/>
       <c r="J81" s="5"/>
@@ -6977,7 +7051,7 @@
         <v>4</v>
       </c>
       <c r="H82" s="11" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="I82" s="11"/>
       <c r="J82" s="5"/>
@@ -7004,7 +7078,7 @@
         <v>13</v>
       </c>
       <c r="H83" s="11" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="I83" s="11"/>
       <c r="J83" s="5"/>
@@ -7019,7 +7093,7 @@
         <v>83</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E84" s="11" t="s">
         <v>317</v>
@@ -7057,7 +7131,7 @@
         <v>321</v>
       </c>
       <c r="G85" s="5" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="H85" s="11">
         <v>1</v>
@@ -7154,7 +7228,7 @@
         <v>88</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="E89" s="5"/>
       <c r="F89" s="5"/>
@@ -7220,7 +7294,7 @@
         <v>91</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="E92" s="5" t="s">
         <v>0</v>
@@ -7230,13 +7304,13 @@
       </c>
       <c r="G92" s="5"/>
       <c r="H92" s="5" t="s">
+        <v>836</v>
+      </c>
+      <c r="I92" s="5" t="s">
         <v>837</v>
       </c>
-      <c r="I92" s="5" t="s">
+      <c r="J92" s="5" t="s">
         <v>838</v>
-      </c>
-      <c r="J92" s="5" t="s">
-        <v>839</v>
       </c>
       <c r="K92" s="5"/>
       <c r="L92" s="5"/>
@@ -7248,7 +7322,7 @@
         <v>92</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>800</v>
+        <v>847</v>
       </c>
       <c r="E93" s="5" t="s">
         <v>18</v>
@@ -7332,7 +7406,7 @@
         <v>56</v>
       </c>
       <c r="H96" s="11" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="I96" s="5"/>
       <c r="J96" s="5"/>
@@ -7358,10 +7432,10 @@
         <v>7</v>
       </c>
       <c r="H97" s="5" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="I97" s="5" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="J97" s="5" t="b">
         <v>0</v>
@@ -7379,7 +7453,7 @@
         <v>795</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="F98" s="5" t="s">
         <v>174</v>
@@ -7388,10 +7462,10 @@
         <v>7</v>
       </c>
       <c r="H98" s="5" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="I98" s="5" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="J98" s="5" t="b">
         <v>0</v>
@@ -7406,10 +7480,10 @@
         <v>98</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="F99" s="5" t="s">
         <v>184</v>
@@ -7418,10 +7492,10 @@
         <v>7</v>
       </c>
       <c r="H99" s="5" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="I99" s="5" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="J99" s="5" t="b">
         <v>0</v>
@@ -7439,7 +7513,7 @@
         <v>795</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="F100" s="5" t="s">
         <v>99</v>
@@ -7555,7 +7629,7 @@
         <v>104</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="E105" s="5" t="s">
         <v>18</v>
@@ -7579,43 +7653,43 @@
         <v>105</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="E106" s="11" t="s">
         <v>19</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>801</v>
+        <v>22</v>
       </c>
       <c r="G106" s="5" t="s">
-        <v>802</v>
-      </c>
-      <c r="H106" s="5"/>
+        <v>2</v>
+      </c>
+      <c r="H106" s="11"/>
       <c r="I106" s="11"/>
       <c r="J106" s="5"/>
       <c r="K106" s="5"/>
       <c r="L106" s="5"/>
       <c r="M106" s="5"/>
-      <c r="N106" s="17"/>
+      <c r="N106" s="16"/>
     </row>
     <row r="107" spans="3:15">
       <c r="C107" s="5">
         <v>106</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="E107" s="11" t="s">
         <v>19</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G107" s="5" t="s">
-        <v>802</v>
+        <v>2</v>
       </c>
       <c r="H107" s="11"/>
-      <c r="I107" s="5"/>
+      <c r="I107" s="11"/>
       <c r="J107" s="5"/>
       <c r="K107" s="5"/>
       <c r="L107" s="5"/>
@@ -7627,44 +7701,44 @@
         <v>107</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>800</v>
-      </c>
-      <c r="E108" s="5" t="s">
-        <v>241</v>
+        <v>852</v>
+      </c>
+      <c r="E108" s="11" t="s">
+        <v>853</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>252</v>
+        <v>578</v>
       </c>
       <c r="G108" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="H108" s="11" t="s">
-        <v>809</v>
-      </c>
-      <c r="I108" s="11"/>
+        <v>3</v>
+      </c>
+      <c r="H108" s="5" t="s">
+        <v>854</v>
+      </c>
+      <c r="I108" s="5"/>
       <c r="J108" s="5"/>
       <c r="K108" s="5"/>
       <c r="L108" s="5"/>
       <c r="M108" s="5"/>
-      <c r="N108" s="17"/>
+      <c r="N108" s="16"/>
     </row>
-    <row r="109" spans="3:15">
+    <row r="109" spans="3:15" ht="14.25">
       <c r="C109" s="5">
         <v>108</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>800</v>
-      </c>
-      <c r="E109" s="5" t="s">
-        <v>241</v>
+        <v>852</v>
+      </c>
+      <c r="E109" s="11" t="s">
+        <v>853</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>245</v>
+        <v>184</v>
       </c>
       <c r="G109" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H109" s="5"/>
+      <c r="H109" s="21"/>
       <c r="I109" s="5"/>
       <c r="J109" s="5"/>
       <c r="K109" s="5"/>
@@ -7677,20 +7751,18 @@
         <v>109</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>800</v>
+        <v>852</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>241</v>
+        <v>585</v>
       </c>
       <c r="F110" s="5" t="s">
-        <v>253</v>
+        <v>200</v>
       </c>
       <c r="G110" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="H110" s="11" t="s">
-        <v>806</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H110" s="11"/>
       <c r="I110" s="5"/>
       <c r="J110" s="5"/>
       <c r="K110" s="5"/>
@@ -7703,19 +7775,19 @@
         <v>110</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>800</v>
-      </c>
-      <c r="E111" s="5" t="s">
-        <v>241</v>
+        <v>852</v>
+      </c>
+      <c r="E111" s="11" t="s">
+        <v>853</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>251</v>
+        <v>99</v>
       </c>
       <c r="G111" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H111" s="5"/>
-      <c r="I111" s="5"/>
+      <c r="H111" s="11"/>
+      <c r="I111" s="11"/>
       <c r="J111" s="5"/>
       <c r="K111" s="5"/>
       <c r="L111" s="5"/>
@@ -7729,124 +7801,122 @@
       <c r="D112" s="8" t="s">
         <v>800</v>
       </c>
-      <c r="E112" s="5" t="s">
-        <v>241</v>
+      <c r="E112" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="F112" s="5" t="s">
-        <v>99</v>
+        <v>801</v>
       </c>
       <c r="G112" s="5" t="s">
-        <v>2</v>
+        <v>802</v>
       </c>
       <c r="H112" s="5"/>
-      <c r="I112" s="5"/>
+      <c r="I112" s="11"/>
       <c r="J112" s="5"/>
       <c r="K112" s="5"/>
       <c r="L112" s="5"/>
       <c r="M112" s="5"/>
-      <c r="N112" s="16"/>
+      <c r="N112" s="17"/>
     </row>
     <row r="113" spans="3:15">
       <c r="C113" s="5">
         <v>112</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>822</v>
-      </c>
-      <c r="E113" s="5" t="s">
+        <v>800</v>
+      </c>
+      <c r="E113" s="11" t="s">
         <v>19</v>
       </c>
       <c r="F113" s="5" t="s">
-        <v>22</v>
+        <v>81</v>
       </c>
       <c r="G113" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H113" s="5"/>
+        <v>802</v>
+      </c>
+      <c r="H113" s="11"/>
       <c r="I113" s="5"/>
       <c r="J113" s="5"/>
       <c r="K113" s="5"/>
       <c r="L113" s="5"/>
       <c r="M113" s="5"/>
       <c r="N113" s="16"/>
-      <c r="O113" s="2"/>
     </row>
     <row r="114" spans="3:15">
       <c r="C114" s="5">
         <v>113</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>822</v>
+        <v>800</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>19</v>
+        <v>241</v>
       </c>
       <c r="F114" s="5" t="s">
-        <v>79</v>
+        <v>252</v>
       </c>
       <c r="G114" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H114" s="5"/>
-      <c r="I114" s="5"/>
+        <v>56</v>
+      </c>
+      <c r="H114" s="11" t="s">
+        <v>809</v>
+      </c>
+      <c r="I114" s="11"/>
       <c r="J114" s="5"/>
       <c r="K114" s="5"/>
       <c r="L114" s="5"/>
       <c r="M114" s="5"/>
-      <c r="N114" s="16"/>
-      <c r="O114" s="2"/>
+      <c r="N114" s="17"/>
     </row>
     <row r="115" spans="3:15">
       <c r="C115" s="5">
         <v>114</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>822</v>
-      </c>
-      <c r="E115" s="11" t="s">
-        <v>306</v>
+        <v>800</v>
+      </c>
+      <c r="E115" s="5" t="s">
+        <v>241</v>
       </c>
       <c r="F115" s="5" t="s">
-        <v>309</v>
+        <v>245</v>
       </c>
       <c r="G115" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="H115" s="11" t="s">
-        <v>824</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H115" s="5"/>
       <c r="I115" s="5"/>
       <c r="J115" s="5"/>
       <c r="K115" s="5"/>
       <c r="L115" s="5"/>
       <c r="M115" s="5"/>
       <c r="N115" s="16"/>
-      <c r="O115" s="2"/>
     </row>
     <row r="116" spans="3:15">
       <c r="C116" s="5">
         <v>115</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>822</v>
-      </c>
-      <c r="E116" s="11" t="s">
-        <v>306</v>
+        <v>800</v>
+      </c>
+      <c r="E116" s="5" t="s">
+        <v>241</v>
       </c>
       <c r="F116" s="5" t="s">
-        <v>184</v>
+        <v>253</v>
       </c>
       <c r="G116" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H116" s="11"/>
+        <v>56</v>
+      </c>
+      <c r="H116" s="11" t="s">
+        <v>806</v>
+      </c>
       <c r="I116" s="5"/>
       <c r="J116" s="5"/>
       <c r="K116" s="5"/>
       <c r="L116" s="5"/>
       <c r="M116" s="5"/>
       <c r="N116" s="16"/>
-      <c r="O116" s="2"/>
     </row>
     <row r="117" spans="3:15">
       <c r="C117" s="5">
@@ -7855,11 +7925,11 @@
       <c r="D117" s="8" t="s">
         <v>800</v>
       </c>
-      <c r="E117" s="11" t="s">
-        <v>306</v>
+      <c r="E117" s="5" t="s">
+        <v>241</v>
       </c>
       <c r="F117" s="5" t="s">
-        <v>99</v>
+        <v>251</v>
       </c>
       <c r="G117" s="5" t="s">
         <v>2</v>
@@ -7870,29 +7940,195 @@
       <c r="K117" s="5"/>
       <c r="L117" s="5"/>
       <c r="M117" s="5"/>
-      <c r="N117" s="17"/>
+      <c r="N117" s="16"/>
+    </row>
+    <row r="118" spans="3:15">
+      <c r="C118" s="5">
+        <v>117</v>
+      </c>
+      <c r="D118" s="8" t="s">
+        <v>800</v>
+      </c>
+      <c r="E118" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="F118" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G118" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H118" s="5"/>
+      <c r="I118" s="5"/>
+      <c r="J118" s="5"/>
+      <c r="K118" s="5"/>
+      <c r="L118" s="5"/>
+      <c r="M118" s="5"/>
+      <c r="N118" s="16"/>
+    </row>
+    <row r="119" spans="3:15">
+      <c r="C119" s="5">
+        <v>118</v>
+      </c>
+      <c r="D119" s="8" t="s">
+        <v>821</v>
+      </c>
+      <c r="E119" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F119" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G119" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H119" s="5"/>
+      <c r="I119" s="5"/>
+      <c r="J119" s="5"/>
+      <c r="K119" s="5"/>
+      <c r="L119" s="5"/>
+      <c r="M119" s="5"/>
+      <c r="N119" s="16"/>
+      <c r="O119" s="2"/>
+    </row>
+    <row r="120" spans="3:15">
+      <c r="C120" s="5">
+        <v>119</v>
+      </c>
+      <c r="D120" s="8" t="s">
+        <v>821</v>
+      </c>
+      <c r="E120" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F120" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G120" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H120" s="5"/>
+      <c r="I120" s="5"/>
+      <c r="J120" s="5"/>
+      <c r="K120" s="5"/>
+      <c r="L120" s="5"/>
+      <c r="M120" s="5"/>
+      <c r="N120" s="16"/>
+      <c r="O120" s="2"/>
+    </row>
+    <row r="121" spans="3:15">
+      <c r="C121" s="5">
+        <v>120</v>
+      </c>
+      <c r="D121" s="8" t="s">
+        <v>821</v>
+      </c>
+      <c r="E121" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="F121" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="G121" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H121" s="11" t="s">
+        <v>823</v>
+      </c>
+      <c r="I121" s="5"/>
+      <c r="J121" s="5"/>
+      <c r="K121" s="5"/>
+      <c r="L121" s="5"/>
+      <c r="M121" s="5"/>
+      <c r="N121" s="16"/>
+      <c r="O121" s="2"/>
+    </row>
+    <row r="122" spans="3:15">
+      <c r="C122" s="5">
+        <v>121</v>
+      </c>
+      <c r="D122" s="8" t="s">
+        <v>821</v>
+      </c>
+      <c r="E122" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="F122" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="G122" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H122" s="11"/>
+      <c r="I122" s="5"/>
+      <c r="J122" s="5"/>
+      <c r="K122" s="5"/>
+      <c r="L122" s="5"/>
+      <c r="M122" s="5"/>
+      <c r="N122" s="16"/>
+      <c r="O122" s="2"/>
+    </row>
+    <row r="123" spans="3:15">
+      <c r="C123" s="5">
+        <v>122</v>
+      </c>
+      <c r="D123" s="8" t="s">
+        <v>800</v>
+      </c>
+      <c r="E123" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="F123" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G123" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H123" s="5"/>
+      <c r="I123" s="5"/>
+      <c r="J123" s="5"/>
+      <c r="K123" s="5"/>
+      <c r="L123" s="5"/>
+      <c r="M123" s="5"/>
+      <c r="N123" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="N2:N117">
-    <cfRule type="cellIs" dxfId="1" priority="55" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="N2:N123">
+    <cfRule type="cellIs" dxfId="9" priority="59" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="56" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="60" stopIfTrue="1" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N106:N111">
+    <cfRule type="cellIs" dxfId="7" priority="3" stopIfTrue="1" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="4" stopIfTrue="1" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N106:N111">
+    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G84 G86:G117">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G84 G86:G107 G109:G123">
       <formula1>INDIRECT(SUBSTITUTE(E2&amp;F2," ",""))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D102:D105 D107:D117 D90:D100 D56 D8:D15 D17:D25 D29:D53 D58:D68 D70:D84 D86 D3:D4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D4 D113:D123 D90:D100 D56 D8:D15 D17:D25 D29:D53 D58:D68 D70:D84 D86 D102:D107">
       <formula1>"C,F,T,;"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F117">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F123">
       <formula1>OFFSET(INDIRECT($E2),0,0,COUNTA(INDIRECT(E2&amp;"Col")),1)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E117">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E123">
       <formula1>Forms</formula1>
     </dataValidation>
   </dataValidations>
